--- a/medicine/Enfance/Complot_à_Versailles/Complot_à_Versailles.xlsx
+++ b/medicine/Enfance/Complot_à_Versailles/Complot_à_Versailles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Complot_%C3%A0_Versailles</t>
+          <t>Complot_à_Versailles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Complot à Versailles est un roman historique d'Annie Jay paru en 1993, se passant au XVIIe siècle, à l'apogée du règne de Louis XIV.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Complot_%C3%A0_Versailles</t>
+          <t>Complot_à_Versailles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire se passe à la fin du XVIIe siècle, à Paris et à la Cour de Versailles.
 En février 1676, Guillaume de Saint-Béryl, un garçon issu d'une famille noble disgraciée, sauve une petite fille de la noyade. L'enfant est tombée dans la Seine. Elle tentait d'échapper à son ravisseur, un homme vêtu d'une grande cape noire.
@@ -546,7 +560,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Complot_%C3%A0_Versailles</t>
+          <t>Complot_à_Versailles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -566,8 +580,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages fictifs
-Pauline de Saint-Béryl, petite-fille de Charles de Saint-Béryl, demoiselle de la reine, elle s'attire les foudres de Mme de Montespan. Elle se fiancera à Silvère pour ne pas se marier à un vieux duc.
+          <t>Personnages fictifs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pauline de Saint-Béryl, petite-fille de Charles de Saint-Béryl, demoiselle de la reine, elle s'attire les foudres de Mme de Montespan. Elle se fiancera à Silvère pour ne pas se marier à un vieux duc.
 Cécile Drouet, orpheline amnésique, adoptée par Catherine Drouet, amie de Pauline et secrètement amoureuse de Guillaume, un mystère plane sur son passé. Cécile est la guérisseuse de la reine. Elle deviendra duchesse d'Espagne mais refusera son titre pour rester avec Pauline et Guillaume ainsi que d'autres de ses amis.
 Guillaume de Saint-Béryl, frère de Pauline, amoureux de Cécile, il est nommé garde-écossais.
 Silvère Galéas des Réaux, jeune comte et ami de Pauline, il se fiancera avec elle pour la sauver d'un mariage dont elle ne voulait pas.
@@ -578,9 +597,43 @@
 Charles de Saint-Béryl, chevalier disgracié par Mazarin pour "complot contre la reine Anne d'Autriche".
 Mme du Payol, dame de la Cour, espiègle et proche de la reine, elle fait semblant d'être sourde et rend des services à Alexandre Bontemps.
 Le Marquis de Lourmel, bourgeois, il a usurpé son titre de noblesse et s'allie à Mme de Montespan pour ne pas être dénoncé.
-Hildegarde Messernicht-Daguessau, compagne de chambre et amie de Pauline (c'est aussi la meilleure amie d'Élisabeth).
-Personnages historiques
-Louis XIV, Roi de France.
+Hildegarde Messernicht-Daguessau, compagne de chambre et amie de Pauline (c'est aussi la meilleure amie d'Élisabeth).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Complot_à_Versailles</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Complot_%C3%A0_Versailles</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages historiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Louis XIV, Roi de France.
 Marie-Thérèse, Reine de France.
 Athénaïs de Montespan, ancienne favorite du Roi.
 Claude de Vin des Œillets, suivante de Mme de Montespan.
